--- a/biology/Médecine/Centre_d'information_régional_sur_les_drogues_et_les_dépendances/Centre_d'information_régional_sur_les_drogues_et_les_dépendances.xlsx
+++ b/biology/Médecine/Centre_d'information_régional_sur_les_drogues_et_les_dépendances/Centre_d'information_régional_sur_les_drogues_et_les_dépendances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27information_r%C3%A9gional_sur_les_drogues_et_les_d%C3%A9pendances</t>
+          <t>Centre_d'information_régional_sur_les_drogues_et_les_dépendances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les centres d’information et de ressources sur les drogues et les dépendances (CIRDD) sont créés, en France, au niveau départemental, interdépartemental ou régional. Leur but est de mettre à disposition des acteurs locaux de la lutte et de la prévention en matière de drogues, des moyens de documentations, d'informations et d'observations.
 Chaque centre est indépendant et libre de choisir librement sa politique et ses priorités.
